--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H2">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q2">
-        <v>4.021903006911222</v>
+        <v>16.28634349566467</v>
       </c>
       <c r="R2">
-        <v>36.19712706220099</v>
+        <v>146.577091460982</v>
       </c>
       <c r="S2">
-        <v>0.08147395118029804</v>
+        <v>0.3521556706548134</v>
       </c>
       <c r="T2">
-        <v>0.08147395118029804</v>
+        <v>0.3521556706548133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H3">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I3">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J3">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q3">
-        <v>9.856635681120224</v>
+        <v>14.10824495668467</v>
       </c>
       <c r="R3">
-        <v>88.709721130082</v>
+        <v>126.974204610162</v>
       </c>
       <c r="S3">
-        <v>0.1996714124894607</v>
+        <v>0.305059172171225</v>
       </c>
       <c r="T3">
-        <v>0.1996714124894607</v>
+        <v>0.305059172171225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H4">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I4">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J4">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q4">
-        <v>3.175523301271555</v>
+        <v>4.545268999422666</v>
       </c>
       <c r="R4">
-        <v>28.579709711444</v>
+        <v>40.907420994804</v>
       </c>
       <c r="S4">
-        <v>0.06432836146846653</v>
+        <v>0.0982812534455204</v>
       </c>
       <c r="T4">
-        <v>0.06432836146846654</v>
+        <v>0.09828125344552038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H5">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I5">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J5">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N5">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q5">
-        <v>5.756730252515666</v>
+        <v>5.270807594909111</v>
       </c>
       <c r="R5">
-        <v>51.810572272641</v>
+        <v>47.437268354182</v>
       </c>
       <c r="S5">
-        <v>0.1166173223833688</v>
+        <v>0.1139693992068752</v>
       </c>
       <c r="T5">
-        <v>0.1166173223833688</v>
+        <v>0.1139693992068752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H6">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I6">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J6">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q6">
-        <v>14.10824495668467</v>
+        <v>4.565901774595779</v>
       </c>
       <c r="R6">
-        <v>126.974204610162</v>
+        <v>41.093115971362</v>
       </c>
       <c r="S6">
-        <v>0.2857986527435881</v>
+        <v>0.09872739095824641</v>
       </c>
       <c r="T6">
-        <v>0.2857986527435881</v>
+        <v>0.09872739095824641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.015377</v>
+        <v>0.6522436666666667</v>
       </c>
       <c r="H7">
-        <v>6.046131</v>
+        <v>1.956731</v>
       </c>
       <c r="I7">
-        <v>0.494492045565236</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J7">
-        <v>0.4944920455652361</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q7">
-        <v>4.545268999422666</v>
+        <v>1.471001662800444</v>
       </c>
       <c r="R7">
-        <v>40.907420994804</v>
+        <v>13.239014965204</v>
       </c>
       <c r="S7">
-        <v>0.09207607043827917</v>
+        <v>0.03180711356331951</v>
       </c>
       <c r="T7">
-        <v>0.09207607043827917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.956731</v>
-      </c>
-      <c r="I8">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J8">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>2.856403666666667</v>
-      </c>
-      <c r="N8">
-        <v>8.569210999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.235832554697756</v>
-      </c>
-      <c r="P8">
-        <v>0.235832554697756</v>
-      </c>
-      <c r="Q8">
-        <v>1.863071201026778</v>
-      </c>
-      <c r="R8">
-        <v>16.767640809241</v>
-      </c>
-      <c r="S8">
-        <v>0.03774128113408916</v>
-      </c>
-      <c r="T8">
-        <v>0.03774128113408915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.956731</v>
-      </c>
-      <c r="I9">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J9">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.000300666666668</v>
-      </c>
-      <c r="N9">
-        <v>21.000902</v>
-      </c>
-      <c r="O9">
-        <v>0.5779641054021444</v>
-      </c>
-      <c r="P9">
-        <v>0.5779641054021444</v>
-      </c>
-      <c r="Q9">
-        <v>4.565901774595779</v>
-      </c>
-      <c r="R9">
-        <v>41.093115971362</v>
-      </c>
-      <c r="S9">
-        <v>0.09249404016909554</v>
-      </c>
-      <c r="T9">
-        <v>0.09249404016909554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.6522436666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.956731</v>
-      </c>
-      <c r="I10">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="J10">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.255294666666666</v>
-      </c>
-      <c r="N10">
-        <v>6.765884</v>
-      </c>
-      <c r="O10">
-        <v>0.1862033399000996</v>
-      </c>
-      <c r="P10">
-        <v>0.1862033399000996</v>
-      </c>
-      <c r="Q10">
-        <v>1.471001662800444</v>
-      </c>
-      <c r="R10">
-        <v>13.239014965204</v>
-      </c>
-      <c r="S10">
-        <v>0.02979890799335384</v>
-      </c>
-      <c r="T10">
-        <v>0.02979890799335384</v>
+        <v>0.03180711356331951</v>
       </c>
     </row>
   </sheetData>
